--- a/notebooks/TGFBR1/input/TGFBR1_LDS1_individuals.xlsx
+++ b/notebooks/TGFBR1/input/TGFBR1_LDS1_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/TGFBR1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366317B3-4072-7F40-9E25-4EA8AE228266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11EA85-51C7-BD40-8057-4A6B1E24403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3760" windowWidth="28460" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="5800" windowWidth="52540" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="206">
   <si>
     <t>PMID</t>
   </si>
@@ -581,6 +581,63 @@
   </si>
   <si>
     <t>Adult onset</t>
+  </si>
+  <si>
+    <t>PMID:30701076</t>
+  </si>
+  <si>
+    <t>Activation of TGF-β signaling in an aortic aneurysm in a patient with Loeys-Dietz syndrome caused by a novel loss-of-function variant of TGFBR1</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>P15Y</t>
+  </si>
+  <si>
+    <t>Protrusio acetabuli</t>
+  </si>
+  <si>
+    <t>HP:0003179</t>
+  </si>
+  <si>
+    <t>Dolichocephaly</t>
+  </si>
+  <si>
+    <t>HP:0000268</t>
+  </si>
+  <si>
+    <t>High myopia</t>
+  </si>
+  <si>
+    <t>HP:0011003</t>
+  </si>
+  <si>
+    <t>Tortuous cerebral arteries</t>
+  </si>
+  <si>
+    <t>HP:0004938</t>
+  </si>
+  <si>
+    <t>Cervical spine instability</t>
+  </si>
+  <si>
+    <t>HP:0010646</t>
+  </si>
+  <si>
+    <t>Cystic medial necrosis</t>
+  </si>
+  <si>
+    <t>HP:0012180</t>
+  </si>
+  <si>
+    <t>P31Y</t>
+  </si>
+  <si>
+    <t>c.1126A&gt;G</t>
+  </si>
+  <si>
+    <t>NP_004603.1:p.(Lys376Glu)</t>
   </si>
 </sst>
 </file>
@@ -965,12 +1022,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS12"/>
+  <dimension ref="A1:BY13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12"/>
+      <selection pane="topRight" activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -979,7 +1036,7 @@
     <col min="4" max="17" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,148 +1110,166 @@
         <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="BU1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1268,148 +1343,166 @@
         <v>66</v>
       </c>
       <c r="Y2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>113</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>72</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>154</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>151</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>159</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>148</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>172</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>117</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>78</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>79</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>80</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>115</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>81</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>144</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>157</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>142</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>83</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>165</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>84</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>86</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>87</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>88</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>89</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>90</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>91</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>92</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>134</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>138</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>140</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>153</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>161</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>163</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>176</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>182</v>
       </c>
+      <c r="BU2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1476,47 +1569,44 @@
       <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" t="s">
-        <v>111</v>
-      </c>
       <c r="Z3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s">
         <v>111</v>
       </c>
       <c r="AD3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE3" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP3" t="s">
         <v>110</v>
       </c>
       <c r="AR3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AS3" t="s">
         <v>111</v>
@@ -1533,11 +1623,11 @@
       <c r="AW3" t="s">
         <v>111</v>
       </c>
-      <c r="BA3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>110</v>
+      <c r="AX3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>111</v>
       </c>
       <c r="BD3" t="s">
         <v>110</v>
@@ -1546,7 +1636,7 @@
         <v>110</v>
       </c>
       <c r="BF3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BG3" t="s">
         <v>111</v>
@@ -1555,16 +1645,19 @@
         <v>111</v>
       </c>
       <c r="BI3" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="BJ3" t="s">
         <v>60</v>
       </c>
       <c r="BK3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1631,50 +1724,47 @@
       <c r="X4" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" t="s">
-        <v>110</v>
-      </c>
       <c r="Z4" t="s">
         <v>110</v>
       </c>
       <c r="AA4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="s">
         <v>110</v>
       </c>
       <c r="AD4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE4" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AF4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP4" t="s">
         <v>111</v>
       </c>
       <c r="AR4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AS4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT4" t="s">
         <v>111</v>
@@ -1686,13 +1776,13 @@
         <v>111</v>
       </c>
       <c r="AW4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>111</v>
       </c>
       <c r="BD4" t="s">
         <v>110</v>
@@ -1701,25 +1791,28 @@
         <v>110</v>
       </c>
       <c r="BF4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BG4" t="s">
         <v>111</v>
       </c>
       <c r="BH4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BI4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="BJ4" t="s">
         <v>60</v>
       </c>
       <c r="BK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1786,95 +1879,95 @@
       <c r="X5" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" t="s">
-        <v>111</v>
-      </c>
       <c r="Z5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AA5" t="s">
         <v>60</v>
       </c>
       <c r="AB5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD5" t="s">
         <v>110</v>
       </c>
       <c r="AE5" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>60</v>
+        <v>60</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>110</v>
       </c>
       <c r="AR5" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT5" t="s">
         <v>111</v>
       </c>
       <c r="AU5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AV5" t="s">
         <v>60</v>
       </c>
       <c r="AW5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB5" t="s">
         <v>60</v>
       </c>
       <c r="BD5" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="BE5" t="s">
         <v>110</v>
       </c>
       <c r="BF5" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="BG5" t="s">
         <v>60</v>
       </c>
       <c r="BH5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="BI5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="BJ5" t="s">
         <v>60</v>
       </c>
       <c r="BK5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1941,9 +2034,6 @@
       <c r="X6" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" t="s">
-        <v>60</v>
-      </c>
       <c r="Z6" t="s">
         <v>60</v>
       </c>
@@ -1951,10 +2041,10 @@
         <v>60</v>
       </c>
       <c r="AB6" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AD6" t="s">
         <v>60</v>
@@ -1965,19 +2055,19 @@
       <c r="AF6" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AG6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP6" t="s">
         <v>60</v>
       </c>
       <c r="AR6" t="s">
@@ -1987,10 +2077,10 @@
         <v>60</v>
       </c>
       <c r="AT6" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AU6" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AV6" t="s">
         <v>60</v>
@@ -1998,10 +2088,10 @@
       <c r="AW6" t="s">
         <v>60</v>
       </c>
-      <c r="BA6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC6" t="s">
+      <c r="AX6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB6" t="s">
         <v>60</v>
       </c>
       <c r="BD6" t="s">
@@ -2028,8 +2118,11 @@
       <c r="BK6" t="s">
         <v>60</v>
       </c>
+      <c r="BL6" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -2093,47 +2186,45 @@
       <c r="X7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" t="s">
-        <v>111</v>
-      </c>
+      <c r="Y7" s="3"/>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="s">
         <v>111</v>
       </c>
       <c r="AC7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD7" t="s">
         <v>110</v>
       </c>
       <c r="AE7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>60</v>
+        <v>60</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>110</v>
       </c>
       <c r="AR7" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="s">
         <v>111</v>
@@ -2142,25 +2233,25 @@
         <v>111</v>
       </c>
       <c r="AU7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV7" t="s">
         <v>110</v>
       </c>
       <c r="AW7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB7" t="s">
         <v>111</v>
       </c>
       <c r="BD7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BE7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF7" t="s">
         <v>111</v>
@@ -2172,16 +2263,19 @@
         <v>111</v>
       </c>
       <c r="BI7" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="BJ7" t="s">
         <v>60</v>
       </c>
       <c r="BK7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2245,44 +2339,42 @@
       <c r="X8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y8" t="s">
-        <v>111</v>
-      </c>
+      <c r="Y8" s="3"/>
       <c r="Z8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="s">
         <v>111</v>
       </c>
       <c r="AC8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD8" t="s">
         <v>110</v>
       </c>
       <c r="AE8" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>110</v>
       </c>
       <c r="AR8" t="s">
         <v>111</v>
@@ -2294,25 +2386,25 @@
         <v>111</v>
       </c>
       <c r="AU8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV8" t="s">
         <v>110</v>
       </c>
       <c r="AW8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB8" t="s">
         <v>111</v>
       </c>
       <c r="BD8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BE8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF8" t="s">
         <v>111</v>
@@ -2324,16 +2416,19 @@
         <v>111</v>
       </c>
       <c r="BI8" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="BJ8" t="s">
         <v>60</v>
       </c>
       <c r="BK8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -2397,38 +2492,35 @@
       <c r="W9" t="s">
         <v>111</v>
       </c>
-      <c r="Z9" t="s">
-        <v>111</v>
-      </c>
       <c r="AA9" t="s">
         <v>111</v>
       </c>
       <c r="AB9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC9" t="s">
         <v>124</v>
       </c>
-      <c r="AC9" t="s">
-        <v>111</v>
-      </c>
       <c r="AD9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG9" t="s">
         <v>110</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AH9" t="s">
         <v>110</v>
       </c>
       <c r="AJ9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>110</v>
+        <v>110</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>111</v>
       </c>
       <c r="AM9" t="s">
         <v>110</v>
@@ -2439,50 +2531,56 @@
       <c r="AO9" t="s">
         <v>110</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AP9" t="s">
         <v>110</v>
       </c>
       <c r="AR9" t="s">
         <v>110</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AS9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU9" t="s">
         <v>111</v>
       </c>
       <c r="AY9" t="s">
         <v>111</v>
       </c>
       <c r="AZ9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BA9" t="s">
         <v>110</v>
       </c>
       <c r="BB9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BD9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC9" t="s">
         <v>111</v>
       </c>
       <c r="BE9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM9" t="s">
         <v>124</v>
       </c>
-      <c r="BM9" t="s">
-        <v>110</v>
-      </c>
       <c r="BN9" t="s">
         <v>110</v>
       </c>
       <c r="BO9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -2537,55 +2635,55 @@
       <c r="W10" t="s">
         <v>110</v>
       </c>
-      <c r="Y10" t="s">
-        <v>110</v>
-      </c>
       <c r="Z10" t="s">
         <v>110</v>
       </c>
-      <c r="AC10" t="s">
-        <v>111</v>
+      <c r="AA10" t="s">
+        <v>110</v>
       </c>
       <c r="AD10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE10" t="s">
         <v>110</v>
       </c>
-      <c r="AG10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AF10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH10" t="s">
         <v>110</v>
       </c>
       <c r="AJ10" t="s">
         <v>110</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AK10" t="s">
         <v>110</v>
       </c>
       <c r="AM10" t="s">
         <v>110</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AN10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP10" t="s">
         <v>110</v>
       </c>
       <c r="AU10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM10" t="s">
         <v>110</v>
       </c>
       <c r="BP10" t="s">
@@ -2594,8 +2692,11 @@
       <c r="BQ10" t="s">
         <v>110</v>
       </c>
+      <c r="BR10" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -2665,9 +2766,6 @@
       <c r="X11" t="s">
         <v>110</v>
       </c>
-      <c r="Y11" t="s">
-        <v>111</v>
-      </c>
       <c r="Z11" t="s">
         <v>111</v>
       </c>
@@ -2681,7 +2779,7 @@
         <v>111</v>
       </c>
       <c r="AD11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AE11" t="s">
         <v>60</v>
@@ -2690,10 +2788,10 @@
         <v>60</v>
       </c>
       <c r="AG11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AH11" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AI11" t="s">
         <v>60</v>
@@ -2714,25 +2812,25 @@
         <v>60</v>
       </c>
       <c r="AO11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AP11" t="s">
         <v>110</v>
       </c>
       <c r="AQ11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AR11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AS11" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AT11" t="s">
         <v>111</v>
       </c>
       <c r="AU11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AV11" t="s">
         <v>60</v>
@@ -2741,10 +2839,10 @@
         <v>60</v>
       </c>
       <c r="AX11" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AY11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AZ11" t="s">
         <v>60</v>
@@ -2771,10 +2869,10 @@
         <v>60</v>
       </c>
       <c r="BH11" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="BI11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="BJ11" t="s">
         <v>60</v>
@@ -2801,10 +2899,13 @@
         <v>60</v>
       </c>
       <c r="BR11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -2874,16 +2975,13 @@
       <c r="X12" t="s">
         <v>60</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>111</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="3" t="s">
         <v>111</v>
       </c>
       <c r="AC12" t="s">
@@ -2902,10 +3000,10 @@
         <v>111</v>
       </c>
       <c r="AH12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="s">
         <v>111</v>
@@ -2913,8 +3011,127 @@
       <c r="AK12" t="s">
         <v>111</v>
       </c>
-      <c r="BS12" t="s">
-        <v>110</v>
+      <c r="AL12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" t="s">
+        <v>190</v>
+      </c>
+      <c r="N13" t="s">
+        <v>203</v>
+      </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
+        <v>190</v>
+      </c>
+      <c r="X13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BS13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY13" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/TGFBR1/input/TGFBR1_LDS1_individuals.xlsx
+++ b/notebooks/TGFBR1/input/TGFBR1_LDS1_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11EA85-51C7-BD40-8057-4A6B1E24403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01214C-DDAA-AA49-8067-FAB390F4E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="5800" windowWidth="52540" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="1060" windowWidth="32760" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="285">
   <si>
     <t>PMID</t>
   </si>
@@ -638,13 +638,250 @@
   </si>
   <si>
     <t>NP_004603.1:p.(Lys376Glu)</t>
+  </si>
+  <si>
+    <t>PMID:31569402</t>
+  </si>
+  <si>
+    <t>Genotypic Categorization of Loeys-Dietz Syndrome Based on 24 Novel Families and Literature Data</t>
+  </si>
+  <si>
+    <t>Family 1 Patient I</t>
+  </si>
+  <si>
+    <t>Family 2 Patient I</t>
+  </si>
+  <si>
+    <t>Family 2 Patient II</t>
+  </si>
+  <si>
+    <t>Family 3 Patient I</t>
+  </si>
+  <si>
+    <t>Family 4 Patient I</t>
+  </si>
+  <si>
+    <t>Family 4 Patient II</t>
+  </si>
+  <si>
+    <t>Family 5 Patient I</t>
+  </si>
+  <si>
+    <t>Family 5 Patient II</t>
+  </si>
+  <si>
+    <t>Family 6 Patient I</t>
+  </si>
+  <si>
+    <t>Family 7 Patient I</t>
+  </si>
+  <si>
+    <t>Family 8 Patient I</t>
+  </si>
+  <si>
+    <t>Family 9 Patient I</t>
+  </si>
+  <si>
+    <t>P7Y</t>
+  </si>
+  <si>
+    <t>P18Y</t>
+  </si>
+  <si>
+    <t>P29Y</t>
+  </si>
+  <si>
+    <t>P47Y</t>
+  </si>
+  <si>
+    <t>P17Y</t>
+  </si>
+  <si>
+    <t>P23Y</t>
+  </si>
+  <si>
+    <t>P43Y</t>
+  </si>
+  <si>
+    <t>c.1120G&gt;A</t>
+  </si>
+  <si>
+    <t>c.1052A&gt;T</t>
+  </si>
+  <si>
+    <t>c.812G&gt;A</t>
+  </si>
+  <si>
+    <t>c.650G&gt;T</t>
+  </si>
+  <si>
+    <t>c.1057G&gt;C</t>
+  </si>
+  <si>
+    <t>c.1460G&gt;A</t>
+  </si>
+  <si>
+    <t>c.693_699delinsC</t>
+  </si>
+  <si>
+    <t>p.A(sp400Gly)</t>
+  </si>
+  <si>
+    <t>p.(Gly374Arg)</t>
+  </si>
+  <si>
+    <t>p.(Asp351Val)</t>
+  </si>
+  <si>
+    <t>p.(Gly271Asp)</t>
+  </si>
+  <si>
+    <t>p.(Ser236del)</t>
+  </si>
+  <si>
+    <t>p.(Gly217Val)</t>
+  </si>
+  <si>
+    <t>p.(Gly353Arg)</t>
+  </si>
+  <si>
+    <t>p.(Arg487Gln)</t>
+  </si>
+  <si>
+    <t>p.(Lys232_Ile233del)</t>
+  </si>
+  <si>
+    <t>c.705_707del</t>
+  </si>
+  <si>
+    <t>p.(Ser236del);c.705_707delCTC</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Frontal bossing</t>
+  </si>
+  <si>
+    <t>HP:0002007</t>
+  </si>
+  <si>
+    <t>Prominent nose</t>
+  </si>
+  <si>
+    <t>HP:0000448</t>
+  </si>
+  <si>
+    <t>Hyperextensible skin</t>
+  </si>
+  <si>
+    <t>HP:0000974</t>
+  </si>
+  <si>
+    <t>Bruising susceptibility</t>
+  </si>
+  <si>
+    <t>HP:0000978</t>
+  </si>
+  <si>
+    <t>Atrophic scars</t>
+  </si>
+  <si>
+    <t>HP:0001075</t>
+  </si>
+  <si>
+    <t>Milia</t>
+  </si>
+  <si>
+    <t>HP:0001056</t>
+  </si>
+  <si>
+    <t>Genu valgum</t>
+  </si>
+  <si>
+    <t>HP:0002857</t>
+  </si>
+  <si>
+    <t>Reduced bone mineral density</t>
+  </si>
+  <si>
+    <t>HP:0004349</t>
+  </si>
+  <si>
+    <t>Recurrent joint dislocation</t>
+  </si>
+  <si>
+    <t>HP:0031869</t>
+  </si>
+  <si>
+    <t>Joint contracture</t>
+  </si>
+  <si>
+    <t>HP:0034392</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>HP:0002758</t>
+  </si>
+  <si>
+    <t>Mitral regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001653</t>
+  </si>
+  <si>
+    <t>Varicose veins</t>
+  </si>
+  <si>
+    <t>HP:0002619</t>
+  </si>
+  <si>
+    <t>Coronary artery dissection</t>
+  </si>
+  <si>
+    <t>HP:0006702</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>HP:0000545</t>
+  </si>
+  <si>
+    <t>Keratoconus</t>
+  </si>
+  <si>
+    <t>HP:0000563</t>
+  </si>
+  <si>
+    <t>Food allergy</t>
+  </si>
+  <si>
+    <t>HP:0500093</t>
+  </si>
+  <si>
+    <t>Hypospadias</t>
+  </si>
+  <si>
+    <t>HP:0000047</t>
+  </si>
+  <si>
+    <t>Volvulus</t>
+  </si>
+  <si>
+    <t>HP:0002580</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +910,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -682,7 +936,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -705,11 +959,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -718,6 +983,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,12 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY13"/>
+  <dimension ref="A1:CS25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="AV10" sqref="AV10"/>
+      <selection activeCell="R34" sqref="R33:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1309,7 @@
     <col min="4" max="17" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,161 +1388,221 @@
       <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CM1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="CO1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1349,160 +1682,220 @@
         <v>67</v>
       </c>
       <c r="AA2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE2" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG2" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK2" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>151</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>159</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>75</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>146</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>148</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>77</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>172</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>117</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>78</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>79</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BA2" t="s">
         <v>80</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BB2" t="s">
         <v>115</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BC2" t="s">
         <v>81</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BD2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH2" t="s">
         <v>82</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BI2" t="s">
         <v>144</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BJ2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK2" t="s">
         <v>157</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BL2" t="s">
         <v>142</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BM2" t="s">
         <v>83</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BN2" t="s">
         <v>165</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BO2" t="s">
         <v>84</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BP2" t="s">
         <v>85</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BQ2" t="s">
         <v>86</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BR2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS2" t="s">
         <v>87</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BT2" t="s">
         <v>88</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BU2" t="s">
         <v>89</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BV2" t="s">
         <v>90</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BW2" t="s">
         <v>91</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BX2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BY2" t="s">
         <v>92</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BZ2" t="s">
         <v>134</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CA2" t="s">
         <v>138</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CB2" t="s">
         <v>140</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CC2" t="s">
         <v>153</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CD2" t="s">
         <v>161</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CE2" t="s">
         <v>163</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CF2" t="s">
         <v>176</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CG2" t="s">
         <v>182</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CH2" t="s">
         <v>192</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CI2" t="s">
         <v>194</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CJ2" t="s">
         <v>196</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CK2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>278</v>
+      </c>
+      <c r="CM2" t="s">
         <v>200</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CN2" t="s">
         <v>202</v>
       </c>
+      <c r="CO2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>272</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>280</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1576,88 +1969,91 @@
         <v>110</v>
       </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AG3" t="s">
         <v>111</v>
       </c>
+      <c r="AH3" t="s">
+        <v>110</v>
+      </c>
       <c r="AI3" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>111</v>
       </c>
       <c r="AL3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>110</v>
       </c>
       <c r="AS3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AV3" t="s">
         <v>111</v>
       </c>
-      <c r="AW3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA3" t="s">
         <v>111</v>
       </c>
       <c r="BB3" t="s">
         <v>111</v>
       </c>
-      <c r="BD3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG3" t="s">
+      <c r="BC3" t="s">
         <v>111</v>
       </c>
       <c r="BH3" t="s">
         <v>111</v>
       </c>
-      <c r="BI3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1731,88 +2127,91 @@
         <v>110</v>
       </c>
       <c r="AB4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AC4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="s">
         <v>110</v>
       </c>
+      <c r="AH4" t="s">
+        <v>111</v>
+      </c>
       <c r="AI4" t="s">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>110</v>
       </c>
       <c r="AL4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>111</v>
+        <v>111</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>110</v>
       </c>
       <c r="AS4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT4" t="s">
         <v>111</v>
       </c>
       <c r="AU4" t="s">
         <v>111</v>
       </c>
       <c r="AV4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>110</v>
+        <v>110</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>111</v>
       </c>
       <c r="BB4" t="s">
         <v>111</v>
       </c>
-      <c r="BD4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG4" t="s">
+      <c r="BC4" t="s">
         <v>111</v>
       </c>
       <c r="BH4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1883,91 +2282,94 @@
         <v>111</v>
       </c>
       <c r="AA5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AB5" t="s">
         <v>60</v>
       </c>
       <c r="AC5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s">
         <v>110</v>
       </c>
+      <c r="AH5" t="s">
+        <v>110</v>
+      </c>
       <c r="AI5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="s">
         <v>110</v>
       </c>
       <c r="AL5" t="s">
         <v>110</v>
       </c>
-      <c r="AN5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>60</v>
+      <c r="AO5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>110</v>
       </c>
       <c r="AS5" t="s">
         <v>110</v>
       </c>
-      <c r="AT5" t="s">
-        <v>111</v>
-      </c>
       <c r="AU5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AV5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA5" t="s">
         <v>111</v>
       </c>
       <c r="BB5" t="s">
         <v>60</v>
       </c>
-      <c r="BD5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG5" t="s">
+      <c r="BC5" t="s">
         <v>60</v>
       </c>
       <c r="BH5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -2038,91 +2440,94 @@
         <v>60</v>
       </c>
       <c r="AA6" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s">
         <v>60</v>
       </c>
       <c r="AC6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD6" t="s">
         <v>60</v>
       </c>
       <c r="AE6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s">
         <v>60</v>
       </c>
+      <c r="AH6" t="s">
+        <v>60</v>
+      </c>
       <c r="AI6" t="s">
         <v>60</v>
       </c>
+      <c r="AK6" t="s">
+        <v>60</v>
+      </c>
       <c r="AL6" t="s">
         <v>60</v>
       </c>
-      <c r="AN6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AO6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>60</v>
       </c>
       <c r="AS6" t="s">
         <v>60</v>
       </c>
-      <c r="AT6" t="s">
-        <v>60</v>
-      </c>
       <c r="AU6" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AV6" t="s">
         <v>60</v>
       </c>
-      <c r="AW6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>60</v>
+      <c r="AZ6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>111</v>
       </c>
       <c r="BB6" t="s">
         <v>60</v>
       </c>
-      <c r="BD6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG6" t="s">
+      <c r="BC6" t="s">
         <v>60</v>
       </c>
       <c r="BH6" t="s">
         <v>60</v>
       </c>
-      <c r="BI6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -2191,91 +2596,94 @@
         <v>111</v>
       </c>
       <c r="AA7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC7" t="s">
         <v>111</v>
       </c>
-      <c r="AD7" t="s">
-        <v>110</v>
-      </c>
       <c r="AE7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AG7" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>110</v>
       </c>
       <c r="AI7" t="s">
         <v>60</v>
       </c>
+      <c r="AK7" t="s">
+        <v>111</v>
+      </c>
       <c r="AL7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>60</v>
+        <v>60</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>110</v>
       </c>
       <c r="AS7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU7" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AV7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA7" t="s">
         <v>111</v>
       </c>
       <c r="BB7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>110</v>
       </c>
       <c r="BH7" t="s">
         <v>111</v>
       </c>
-      <c r="BI7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL7" t="s">
+      <c r="BM7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2344,91 +2752,94 @@
         <v>111</v>
       </c>
       <c r="AA8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC8" t="s">
         <v>111</v>
       </c>
-      <c r="AD8" t="s">
-        <v>110</v>
-      </c>
       <c r="AE8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>110</v>
       </c>
       <c r="AI8" t="s">
         <v>60</v>
       </c>
+      <c r="AK8" t="s">
+        <v>111</v>
+      </c>
       <c r="AL8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>110</v>
       </c>
       <c r="AS8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU8" t="s">
         <v>111</v>
       </c>
       <c r="AV8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA8" t="s">
         <v>111</v>
       </c>
       <c r="BB8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>110</v>
       </c>
       <c r="BH8" t="s">
         <v>111</v>
       </c>
-      <c r="BI8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -2499,41 +2910,38 @@
         <v>111</v>
       </c>
       <c r="AC9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE9" t="s">
         <v>124</v>
       </c>
-      <c r="AD9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>110</v>
-      </c>
       <c r="AF9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH9" t="s">
         <v>110</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>110</v>
+      <c r="AI9" t="s">
+        <v>111</v>
       </c>
       <c r="AK9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="s">
         <v>110</v>
       </c>
       <c r="AN9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AP9" t="s">
         <v>110</v>
       </c>
+      <c r="AQ9" t="s">
+        <v>110</v>
+      </c>
       <c r="AR9" t="s">
         <v>110</v>
       </c>
@@ -2541,46 +2949,52 @@
         <v>110</v>
       </c>
       <c r="AU9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>110</v>
       </c>
       <c r="BA9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL9" t="s">
         <v>110</v>
       </c>
       <c r="BM9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>124</v>
       </c>
-      <c r="BN9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR9" t="s">
+      <c r="CA9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -2641,22 +3055,19 @@
       <c r="AA10" t="s">
         <v>110</v>
       </c>
-      <c r="AD10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AB10" t="s">
         <v>110</v>
       </c>
       <c r="AF10" t="s">
         <v>110</v>
       </c>
+      <c r="AG10" t="s">
+        <v>111</v>
+      </c>
       <c r="AH10" t="s">
         <v>110</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AI10" t="s">
         <v>110</v>
       </c>
       <c r="AM10" t="s">
@@ -2668,35 +3079,41 @@
       <c r="AP10" t="s">
         <v>110</v>
       </c>
-      <c r="AU10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM10" t="s">
+      <c r="AQ10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN10" t="s">
         <v>110</v>
       </c>
       <c r="BP10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CE10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -2778,27 +3195,21 @@
       <c r="AC11" t="s">
         <v>111</v>
       </c>
-      <c r="AD11" t="s">
-        <v>111</v>
-      </c>
       <c r="AE11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AH11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>60</v>
-      </c>
       <c r="AK11" t="s">
         <v>60</v>
       </c>
@@ -2815,19 +3226,19 @@
         <v>60</v>
       </c>
       <c r="AP11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AQ11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AR11" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AT11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU11" t="s">
         <v>111</v>
@@ -2835,20 +3246,11 @@
       <c r="AV11" t="s">
         <v>60</v>
       </c>
-      <c r="AW11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>111</v>
-      </c>
       <c r="AZ11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="BA11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="BB11" t="s">
         <v>60</v>
@@ -2856,27 +3258,12 @@
       <c r="BC11" t="s">
         <v>60</v>
       </c>
-      <c r="BD11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>60</v>
-      </c>
       <c r="BH11" t="s">
         <v>60</v>
       </c>
       <c r="BI11" t="s">
         <v>111</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>60</v>
-      </c>
       <c r="BK11" t="s">
         <v>60</v>
       </c>
@@ -2898,14 +3285,47 @@
       <c r="BQ11" t="s">
         <v>60</v>
       </c>
-      <c r="BR11" t="s">
-        <v>60</v>
-      </c>
       <c r="BS11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>60</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>60</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>60</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>60</v>
+      </c>
+      <c r="CF11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -2978,18 +3398,16 @@
       <c r="Z12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>111</v>
+      <c r="AA12" t="s">
+        <v>110</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>111</v>
-      </c>
+      <c r="AC12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" s="3"/>
       <c r="AE12" t="s">
         <v>111</v>
       </c>
@@ -3003,25 +3421,31 @@
         <v>111</v>
       </c>
       <c r="AI12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ12" t="s">
         <v>111</v>
       </c>
       <c r="AK12" t="s">
         <v>111</v>
       </c>
       <c r="AL12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BT12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -3082,56 +3506,2362 @@
       <c r="Z13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AR13" t="s">
         <v>190</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>111</v>
       </c>
       <c r="AS13" t="s">
         <v>104</v>
       </c>
+      <c r="AT13" t="s">
+        <v>111</v>
+      </c>
       <c r="AU13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="AZ13" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BO13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX13" t="s">
         <v>190</v>
       </c>
-      <c r="BS13" s="3" t="s">
+      <c r="CE13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BT13" s="3" t="s">
+      <c r="CF13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BU13" s="3" t="s">
+      <c r="CG13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BV13" s="3" t="s">
+      <c r="CH13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BW13" s="3" t="s">
+      <c r="CI13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BX13" s="3" t="s">
+      <c r="CJ13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BY13" s="3" t="s">
+      <c r="CK13" s="3"/>
+      <c r="CL13" s="3"/>
+      <c r="CM13" s="3" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS14" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS15" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>221</v>
+      </c>
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS16" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>222</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS17" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" t="s">
+        <v>237</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s">
+        <v>222</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" t="s">
+        <v>237</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CP19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS19" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>243</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS20" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>238</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>221</v>
+      </c>
+      <c r="O21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS21" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CI22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CK22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS22" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="CI23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS23" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CO24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS24" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:97" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="CO25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS25" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/TGFBR1/input/TGFBR1_LDS1_individuals.xlsx
+++ b/notebooks/TGFBR1/input/TGFBR1_LDS1_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01214C-DDAA-AA49-8067-FAB390F4E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F0856B-B220-3B42-9442-B1C5EE845B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="1060" windowWidth="32760" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -984,15 +984,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,7 +1296,7 @@
   <dimension ref="A1:CS25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R33:R34"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5672,195 +5668,195 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:97" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" t="s">
         <v>233</v>
       </c>
       <c r="K25" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" t="s">
         <v>242</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="8" t="s">
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
         <v>226</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" t="s">
         <v>108</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" t="s">
         <v>107</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BX25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="BY25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="CF25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG25" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="CK25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="CL25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="CM25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="CO25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="CP25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="CR25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="CS25" s="9" t="s">
+      <c r="Q25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CO25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS25" s="6" t="s">
         <v>111</v>
       </c>
     </row>
